--- a/Diagrams/event table.xlsx
+++ b/Diagrams/event table.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4ano\Embebidos\embebidos2122\Diagrams\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59A6478-2383-474E-BEF1-C013A8B1F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9504"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -132,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +483,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -490,15 +499,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -545,7 +559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,9 +591,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,6 +643,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,43 +836,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1"/>
-    <row r="9" spans="2:6" ht="15" thickBot="1">
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -838,8 +888,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1">
-      <c r="B11" s="17"/>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
@@ -853,8 +903,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1">
-      <c r="B12" s="17"/>
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
@@ -868,8 +918,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="17"/>
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
@@ -883,8 +933,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="17"/>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
@@ -898,8 +948,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="17"/>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
@@ -913,8 +963,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" customHeight="1">
-      <c r="B16" s="17"/>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
@@ -928,8 +978,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1">
-      <c r="B17" s="17"/>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
@@ -943,8 +993,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1">
-      <c r="B18" s="17"/>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -958,8 +1008,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1">
-      <c r="B19" s="17"/>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
       <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
@@ -973,8 +1023,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1">
-      <c r="B20" s="18"/>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
       <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
@@ -988,8 +1038,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1005,8 +1055,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1" thickBot="1">
-      <c r="B22" s="20"/>
+    <row r="22" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
       <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
@@ -1031,24 +1081,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Diagrams/event table.xlsx
+++ b/Diagrams/event table.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4ano\Embebidos\embebidos2122\Diagrams\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59A6478-2383-474E-BEF1-C013A8B1F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1056" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -18,11 +12,12 @@
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Event name</t>
   </si>
@@ -133,13 +128,16 @@
   </si>
   <si>
     <t>mobile</t>
+  </si>
+  <si>
+    <t>take photo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,7 +557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,27 +589,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,24 +623,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -836,27 +798,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B7:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="15" thickBot="1"/>
+    <row r="9" spans="2:6" ht="15" thickBot="1">
       <c r="B9" s="2"/>
       <c r="C9" s="16" t="s">
         <v>0</v>
@@ -871,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="18" customHeight="1">
       <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
@@ -888,7 +850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="18" customHeight="1">
       <c r="B11" s="20"/>
       <c r="C11" s="5" t="s">
         <v>5</v>
@@ -903,7 +865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="18" customHeight="1">
       <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -918,7 +880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="18" customHeight="1">
       <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -933,147 +895,162 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="18" customHeight="1">
       <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1">
       <c r="B15" s="20"/>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="18" customHeight="1">
       <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="18" customHeight="1">
       <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="18" customHeight="1">
       <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="18" customHeight="1">
       <c r="B19" s="20"/>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+    <row r="20" spans="2:6" ht="18" customHeight="1">
+      <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="2:6" ht="18" customHeight="1">
+      <c r="B21" s="21"/>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1">
+      <c r="B22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="6" t="s">
+    <row r="23" spans="2:6" ht="18" customHeight="1" thickBot="1">
+      <c r="B23" s="23"/>
+      <c r="C23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F23" s="15" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1081,24 +1058,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Diagrams/event table.xlsx
+++ b/Diagrams/event table.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4ano\Embebidos\embebidos2122\Diagrams\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E085A0-4F4D-4842-BC1C-4FDB4DB34735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,6 @@
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -43,18 +48,6 @@
     <t>Sample luminosity</t>
   </si>
   <si>
-    <t>Control heater</t>
-  </si>
-  <si>
-    <t>Control Window</t>
-  </si>
-  <si>
-    <t>Control light</t>
-  </si>
-  <si>
-    <t>Control water pump</t>
-  </si>
-  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -67,9 +60,6 @@
     <t>Event sample luminosity</t>
   </si>
   <si>
-    <t>System reset</t>
-  </si>
-  <si>
     <t>Collect data</t>
   </si>
   <si>
@@ -82,9 +72,6 @@
     <t>Turn heater ON/OFF</t>
   </si>
   <si>
-    <t>Turn pump ON</t>
-  </si>
-  <si>
     <t>Synchronous</t>
   </si>
   <si>
@@ -130,14 +117,32 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>take photo</t>
+    <t>Take picture</t>
+  </si>
+  <si>
+    <t>Adjust heater</t>
+  </si>
+  <si>
+    <t>Adjust Window</t>
+  </si>
+  <si>
+    <t>Adjust light</t>
+  </si>
+  <si>
+    <t>Adjust water pump</t>
+  </si>
+  <si>
+    <t>Turn pump ON/OFF</t>
+  </si>
+  <si>
+    <t>Light On/Off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,9 +594,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,6 +646,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -798,27 +839,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1"/>
-    <row r="9" spans="2:6" ht="15" thickBot="1">
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="16" t="s">
         <v>0</v>
@@ -833,218 +874,218 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1">
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="18" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1">
-      <c r="B22" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="18" customHeight="1" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23"/>
       <c r="C23" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1058,24 +1099,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Diagrams/event table.xlsx
+++ b/Diagrams/event table.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4ano\Embebidos\embebidos2122\Diagrams\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E085A0-4F4D-4842-BC1C-4FDB4DB34735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Event name</t>
   </si>
@@ -136,13 +130,19 @@
   </si>
   <si>
     <t>Light On/Off</t>
+  </si>
+  <si>
+    <t>Growing cycle</t>
+  </si>
+  <si>
+    <t>turn ON/OFF the water pump and enable/disable the light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,27 +594,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,24 +628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -839,27 +803,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B7:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="15" thickBot="1"/>
+    <row r="9" spans="2:6" ht="15" thickBot="1">
       <c r="B9" s="2"/>
       <c r="C9" s="16" t="s">
         <v>0</v>
@@ -874,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="18" customHeight="1">
       <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
@@ -891,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="18" customHeight="1">
       <c r="B11" s="20"/>
       <c r="C11" s="5" t="s">
         <v>5</v>
@@ -906,7 +870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="18" customHeight="1">
       <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -921,7 +885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="18" customHeight="1">
       <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -936,7 +900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="18" customHeight="1">
       <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>31</v>
@@ -951,7 +915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="18" customHeight="1">
       <c r="B15" s="20"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -966,7 +930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="18" customHeight="1">
       <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -981,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="18" customHeight="1">
       <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>34</v>
@@ -996,7 +960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="18" customHeight="1">
       <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1011,7 +975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="18" customHeight="1">
       <c r="B19" s="20"/>
       <c r="C19" s="5" t="s">
         <v>18</v>
@@ -1026,7 +990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="18" customHeight="1">
       <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
         <v>19</v>
@@ -1041,57 +1005,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
+    <row r="21" spans="2:6" ht="18" customHeight="1">
+      <c r="B21" s="20"/>
       <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1">
+      <c r="B22" s="21"/>
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+    <row r="23" spans="2:6" ht="18" customHeight="1">
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="6" t="s">
+    <row r="24" spans="2:6" ht="18" customHeight="1" thickBot="1">
+      <c r="B24" s="23"/>
+      <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F24" s="15" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1099,24 +1076,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
